--- a/SRC/FlowChart/取消交易/inEVENT_Responder.xlsx
+++ b/SRC/FlowChart/取消交易/inEVENT_Responder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>inEVENT_Responder</t>
   </si>
@@ -43,12 +43,313 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>inFunc_GetHostNum_NewUI</t>
+  </si>
+  <si>
+    <t>先判斷是否已經選擇過主機。
+判斷條件為特定的 BitOn =true + inLoadHDTRec(0)，或是 srBRec.inHDTIndex 不為 -1。
+若已選定主機，則直接結束流程，並取得 srBRec.lnBatchNum。
+若尚未選擇主機，才進入主機選單處理流程，逐筆讀取每一筆 HDTRec。
+針對每一筆 HDTRec，判斷該筆主機搭配交易類型是否需要顯示在選單中，只有符合條件的資料才會納入選單。
+在建立選單的過程中，同時計算符合條件的主機總筆數，記錄每筆主機在選單中的順序，並組合顯示用的文字內容（主機名稱加上所在的第幾筆）。
+依照主機總筆數，決定畫面上需要顯示的選單項目數，並將各主機選項顯示在螢幕上。
+等待使用者操作，接收觸控點擊或按鍵輸入，依使用者選擇的項目，取得對應的 srBRec.lnBatchNum。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inBATCH_FuncUserChoice_By_Sqlite</t>
+  </si>
+  <si>
+    <t>inFunc_Find_Specific_HDTindex 用來取得 DCC、NCCC、ESVC、TRUST 各主機在 HDT 中的 index（也就是位於第幾筆 record）。
+pobTran-&gt;srBRec.inHDTIndex 則用來判斷目前交易所屬的主機類型，並依此呼叫對應主機的處理 function，以取得 pobTran-&gt;srBRec.lnOrgInvNum。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inHG_Func_SelectVoidTRT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果選擇的 HDPT 主機為 HGTRT，且交易類型為取消交易或 CUP 取消交易，則更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;inHGTransactionCode = pobTran-&gt;inTransactionCode(_VOID_/_CUP_VOID_);
+pobTran-&gt;inRunTRTID = _TRT_HG_VOID_;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* END */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* BEGIN   inFLOW_RunOperation(&amp;pobTran, srEventMenuItem.inRunOperationID)   */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*  BEGIN inEVENT_Run_Normal_TRT(&amp;pobTran) */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Check_Txn_Function_When_ECR</t>
+  </si>
+  <si>
+    <t>inFLOW_RunFunction(pobTran, _NCCC_FUNCTION_CHECK_TRANS_FUNCTION_FLOW_)</t>
+  </si>
+  <si>
+    <t>inNCCC_Func_Check_Transaction_Function_Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Check_Transaction_Function_Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Check_Transaction_Function：
+透過 inLoadHDTRec(0) 載入 HDT 資料，並呼叫 inGetTransFunc 取得交易功能參數，依據交易類型進行比對，判斷該交易功能是否有開啟。
+inNCCC_Func_Check_Transaction_Function_Award：
+同樣是依交易類型與其他判斷 交易功能是否有開啟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Check_Transaction_Function：
+透過 inLoadHDTRec(0) 載入 HDT 資料，並呼叫 inGetTransFunc 取得交易功能參數，依據交易類型進行比對，判斷該交易功能是否有開啟。
+inNCCC_Func_Check_Transaction_Function_Award：
+同樣是依交易類型與其他判斷 交易功能是否有開啟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_Find_Specific_HDTindex 用來取得 NCCC 主機在 HDT 中的 index。
+完成 inLoadHDPTRec 後，讀取 srHDPTRec.szMustSettleBit，判斷是否需要先進行結帳。
+若該 Bit 為 On，則在螢幕上顯示提示訊息，提醒使用者先結帳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Must_SETTLE</t>
+  </si>
+  <si>
+    <t>inNCCC_DCC_Func_Must_SETTLE</t>
+  </si>
+  <si>
+    <t>先取得 DCC 主機在 HDT 中的 index，並依此判斷該主機功能是否已開啟，
+完成 inLoadHDPTRec 後，讀取 srHDPTRec.szMustSettleBit，判斷是否需要先進行結帳。
+若該 Bit 為 On，則在螢幕上顯示提示訊息，提醒使用者先結帳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_ECR_CheckCustomPassword_Flow:
+如果交易是從ECR發起才做後續處理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_CheckTermStatus:
+確認機器狀態，包括是否已下TMS參數和DCC參數(未仔細看過整支程式流程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inModem_Predial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inModem_Initial：
+負責開啟撥接功能，並設定項目 CARRIER_PRESENT_TIME 設為 255
+取得 PABX 與 第一授權主機的電話號碼，
+呼叫 inModem_Dial(PABX, 授權主機電話) 透過 Modem 撥號，建立與授權主機的通訊連線。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_VOID_Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認是否能進行取消交易，判斷包含是否為負向交易，pobTran-&gt;srBRec.uszVOIDBit 為On，
+不符合取消交易，則螢幕顯示提示訊息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_VOID_Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在非特定客製化的情況下，螢幕需顯示 授權碼 與 金額，
+並等待使用者輸入 零 以確認交易，更新
+pobTran-&gt;uszUpdateBatchBit = VS_TRUE;
+pobTran-&gt;srBRec.uszVOIDBit = VS_TRUE;
+pobTran-&gt;srBRec.inOrgCode = pobTran-&gt;srBRec.inCode;
+pobTran-&gt;srBRec.inCode = pobTran-&gt;inTransactionCode;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_Check_Batch_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_ESC_Check</t>
+  </si>
+  <si>
+    <t>看起來根據特定條件設定
+pobTran-&gt;srBRec.inESCUploadMode = _ESC_STATUS_NOT_SUPPORTED_;
+pobTran-&gt;srBRec.inESCTransactionCode = pobTran-&gt;inTransactionCode;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_CheckSpecialCard_Flow</t>
+  </si>
+  <si>
+    <t>當 Special_Card_Range_Enable 啟動 特殊卡別參數檔功能 時：
+1.inNCCC_Func_CheckSpecialCard 
+    逐筆讀取每筆 SCDT RECORD
+    判斷交易卡號是否落在某筆 RECORD 的範圍內
+    檢查交易金額是否超過活動限額
+    判斷交易是否符合活動期間及條件
+2.inNCCC_Func_Table_Link_Duty_Free_Function
+    將 srLink 內每個 table 的 szTag 與對應的 pTagValue 連結到 srALL
+3.inSqlite_Get_Table_ByRecordID_All
+    SQL 查詢完成後，透過 binding 依據每個 szTag 更新對應的 pTagValue
+    注意：這裡的 pTagValue 是 call by reference(&amp;prob-&gt;...)，會動態更新 prob 的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客製化非_CUSTOMER_INDICATOR_076_8_DIGITS_ 的情況下：
+1.單筆交易檢查:
+    呼叫 inFunc_Check_Single_Trade 檢查本次交易金額是否超過單筆上限。
+2.總交易額度檢查:
+    只有當目前主機是 NCCC、DCC、HG、TRUST 任一主機時，才會進行總額度檢查，呼叫 inFunc_Check_Total_Trade，計算：
+    取檔名 NCCC + BATCHNUM 的全部交易金額加上檔名 DCC + BATCHNUM 的全部交易金額 扣除當筆交易金額，最後檢查總額度是否超過設定上限。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inHG_Func_VOID_RunMultiFlow</t>
+  </si>
+  <si>
+    <t>inNCCC_Func_Get_Transaction_No_From_PAN</t>
+  </si>
+  <si>
+    <t>使用 端末機代號 做運算，並將結果與 卡號 組合起來，生成交易編號（Transaction ID），
+可直接參考這支程式的註解，寫得很詳細的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_ESC_FuncProcess</t>
+  </si>
+  <si>
+    <t>在 開啟 ESC 功能 的情況下，每次操作流程如下：
+1.啟用 Bit
+    pobTran-&gt;uszFileNameNoNeedHostBit = VS_TRUE
+    pobTran-&gt;uszFileNameNoNeedNumBit = VS_TRUE
+2.依 BitOn 分流組 TableName，並做Table操作包含 刪除舊的Table，新建Table、新增資料到Table
+    inSqlite_Drop_Table_Flow
+    inBATCH_Create_BatchTable_Flow
+    inBATCH_Insert_All_Flow
+    sync()
+3.關閉 Bit
+    pobTran-&gt;uszFileNameNoNeedHostBit = VS_FALSE
+    pobTran-&gt;uszFileNameNoNeedNumBit = VS_FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查是否符合 免簽條件，若符合，將 pobTran-&gt;srBRec.uszNoSignatureBit 設為 VS_TRUE，
+並呼叫 inBATCH_Update_NoSignature_By_Sqlite，將免簽狀態更新回資料庫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Check_NoSignature_Final</t>
+  </si>
+  <si>
+    <t>inSIGN_TouchSignature_Flow</t>
+  </si>
+  <si>
+    <t>inFunc_PrintReceipt_ByBuffer_Flow</t>
+  </si>
+  <si>
+    <t>inFunc_NCCC_PrintReceipt_ByBuffer:
+將簽單所需的資料整理並存入 Buffer，最後呼叫 inPRINT_Buffer_OutPut，強制列印簽單。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inECR_Send_Transaction_Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由 ECR 發動的交易，且簽單列印完成後：
+先將 pobTran-&gt;uszDelaySendBit 設為 VS_FALSE，
+因為接下來呼叫 inECR_Send_Transaction_Result 時，會依據 uszDelaySendBit 進行判斷。
+於 inECR_Send_Transaction_Result 內，呼叫 inECR_Send_Transaction，組成交易電文並發送給 ECR。
+更新 srECROb-&gt;srTransData.uszIsResponse = VS_TRUE，表示已成功回傳 ECR 交易結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Send_ECR_After_Print_Receipt</t>
+  </si>
+  <si>
+    <t>inNCCC_Func_Receive_EI_Flow</t>
+  </si>
+  <si>
+    <t>流程中最後收電子發票的地方，如果是ECR發動的交易，判斷電子發票部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_HG_FUNCTION_DISPLAY_COMPLETE_</t>
+  </si>
+  <si>
+    <t>當 pobTran-&gt;srBRec.uszHappyGoMulti 或 pobTran-&gt;srBRec.uszHappyGoSingle 任一 Bit 為 On 時，
+在螢幕上顯示提示訊息，告知 HappyGo（HG）交易完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_ESC_Func_Upload</t>
+  </si>
+  <si>
+    <t>看起來是上傳當筆ESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (暫時沒看code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 不等簽單列印完成 的情況下：
+呼叫 inECR_Send_Transaction組成交易電文並發送給 ECR
+更新 srECROb-&gt;srTransData.uszIsResponse = VS_TRUE，表示已回傳 ECR 結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (暫時沒看code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +362,21 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -84,10 +400,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -369,17 +692,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.125" customWidth="1"/>
+    <col min="2" max="2" width="98.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -387,24 +712,304 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="210" x14ac:dyDescent="0.3">
-      <c r="E5" s="1" t="s">
+    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="240" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="90" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="90" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="120" x14ac:dyDescent="0.3">
+      <c r="C35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="165" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="180" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="C53" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="90" x14ac:dyDescent="0.3">
+      <c r="C55" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="C59" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
